--- a/BackTest/2020-01-19 BackTest LINK.xlsx
+++ b/BackTest/2020-01-19 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-3535.252567984118</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3042.649267984118</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1907.54203800346</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1224.81083800346</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1525.29083800346</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2556.01543800346</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2657.48853800346</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7135.353138003459</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7135.103138003459</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-12820.27393800346</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-12620.27393800346</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-13351.08983800346</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-13867.62903800346</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-13864.42903800346</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-13855.56553800346</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-14483.46573800346</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-11885.79711450655</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-11893.48981450655</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-11886.49341450655</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-12659.17511450654</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-12639.17511450654</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8022.321514506544</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8754.036314506544</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10751.88291450654</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-11880.7398508128</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-11986.542898147</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-12127.810798147</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-10762.565098147</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-10762.565098147</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9356.686898147003</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8063.609598147003</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8292.591498147003</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-5047.279898082654</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5048.075198082654</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9237.554398082653</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9069.125698082653</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-8660.851458076226</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9078.842658076226</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10528.38135807623</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10528.38135807623</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10293.97775807623</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-10602.61925807623</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-10602.99035182623</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-10444.51615182623</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-10990.58785182623</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-11572.94365182623</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-11626.25535182623</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-11629.76835182623</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-11629.76835182623</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-11813.96105182623</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-11915.78235182623</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-11958.65325182623</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-13366.22055182623</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-15562.62655182623</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-15562.62655182623</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-13163.72175182623</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-14693.79005182622</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-14323.50675182623</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-14269.22505182623</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-14248.33245182623</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-14118.48435182623</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-12993.69405182623</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-13060.13897395656</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-12962.40067580597</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-12995.43668505605</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-14037.96748505605</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-13984.79288505605</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-13889.05186546368</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-13879.19641211282</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-10612.7129110681</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-10982.9962110681</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-12939.4724110681</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-13039.4724110681</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-13036.17208103509</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-13003.26651999528</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-13031.76151999528</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-12998.82344357894</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-12998.82344357894</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-19921.3295923584</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-19901.70045620131</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-20789.4725562013</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-24037.1877562013</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-24363.6077562013</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-24255.6077562013</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-24572.0192562013</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-24605.0116562013</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-24740.6980562013</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-25775.09142210852</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-28113.07722210852</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-28520.67592210852</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-27333.29472210852</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-28303.32392210851</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-28139.26125201205</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-28247.88195201205</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-31434.17895201205</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-31433.17895201205</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-31502.13375201205</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-31921.87825201205</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-31920.87825201205</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-32248.31205201205</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-33248.97205201205</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-33224.29028566901</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-33441.11698566901</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-32415.41478566901</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-35043.93978566901</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-34989.81818566901</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-37453.81448566901</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-37453.81448566901</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-38345.58708566901</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-37889.47027524155</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-38308.43077524155</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-38308.43077524155</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-38985.33482607135</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-39904.09492607135</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-40457.23272607135</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-42768.70222607135</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-42655.58202607135</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-44291.44112607135</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-41335.89578814032</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-41350.99578814032</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-43638.99578814032</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-43637.99578814032</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-43637.99578814032</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-44729.40258814031</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-42026.44108814032</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-42155.34868814032</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-41956.30348814031</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-41659.29078814032</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-53230.03471270201</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-56237.55227142851</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -14047,10 +14047,14 @@
         <v>-63222.22365799116</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3004</v>
+      </c>
+      <c r="J414" t="n">
+        <v>3004</v>
+      </c>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14080,11 +14084,19 @@
         <v>-61705.65315799115</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3003</v>
+      </c>
+      <c r="J415" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14116,8 +14128,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14164,19 @@
         <v>-62840.65315799115</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>3001</v>
+      </c>
+      <c r="J417" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14182,8 +14208,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +14247,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14248,8 +14286,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14281,8 +14325,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14314,8 +14364,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14347,8 +14403,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +14442,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +14481,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14517,19 @@
         <v>-74436.65875799116</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2983</v>
+      </c>
+      <c r="J426" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +14561,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14597,19 @@
         <v>-79421.94915799116</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2950</v>
+      </c>
+      <c r="J428" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14545,8 +14641,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14677,19 @@
         <v>-76844.66435799116</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2929</v>
+      </c>
+      <c r="J430" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14718,19 @@
         <v>-76689.69895799116</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2941</v>
+      </c>
+      <c r="J431" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14759,19 @@
         <v>-76685.73795799116</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2952</v>
+      </c>
+      <c r="J432" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14800,19 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2956</v>
+      </c>
+      <c r="J433" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14841,19 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2962</v>
+      </c>
+      <c r="J434" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14882,19 @@
         <v>-75652.0654083041</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2962</v>
+      </c>
+      <c r="J435" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14923,19 @@
         <v>-75776.7240083041</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2970</v>
+      </c>
+      <c r="J436" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +14964,19 @@
         <v>-75700.2180083041</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>2960</v>
+      </c>
+      <c r="J437" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +15005,19 @@
         <v>-74982.75700830411</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2963</v>
+      </c>
+      <c r="J438" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15046,19 @@
         <v>-74982.75700830411</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>2965</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15087,19 @@
         <v>-74306.4257083041</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2965</v>
+      </c>
+      <c r="J440" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15128,19 @@
         <v>-74788.9020083041</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2966</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15169,19 @@
         <v>-74015.46380830409</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2965</v>
+      </c>
+      <c r="J442" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15210,19 @@
         <v>-74015.46380830409</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2966</v>
+      </c>
+      <c r="J443" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +15254,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +15293,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +15332,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +15371,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15172,8 +15410,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15205,8 +15449,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15238,8 +15488,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +15527,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15304,8 +15566,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15337,8 +15605,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15370,8 +15644,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +15683,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15436,8 +15722,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +15761,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15502,8 +15800,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15535,8 +15839,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +15878,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15601,8 +15917,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15634,8 +15956,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15667,8 +15995,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15700,8 +16034,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +16073,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15766,8 +16112,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15799,8 +16151,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15832,8 +16190,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +16229,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15898,8 +16268,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15931,8 +16307,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15964,8 +16346,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15997,8 +16385,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16030,8 +16424,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16063,8 +16463,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16096,8 +16502,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16129,8 +16541,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16162,8 +16580,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16195,8 +16619,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16655,19 @@
         <v>-79141.03900830408</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2970</v>
+      </c>
+      <c r="J480" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16261,8 +16699,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16735,19 @@
         <v>-79175.70320830408</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>2971</v>
+      </c>
+      <c r="J482" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,15 +16776,19 @@
         <v>-79174.70320830408</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>2964</v>
       </c>
       <c r="J483" t="n">
-        <v>2964</v>
-      </c>
-      <c r="K483" t="inlineStr"/>
+        <v>3004</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,17 +16817,17 @@
         <v>-79264.54100830408</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>2971</v>
       </c>
       <c r="J484" t="n">
-        <v>2964</v>
+        <v>3004</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L484" t="n">
@@ -16402,17 +16858,17 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>2965</v>
       </c>
       <c r="J485" t="n">
-        <v>2964</v>
+        <v>3004</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -16443,15 +16899,19 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>2971</v>
       </c>
       <c r="J486" t="n">
-        <v>2971</v>
-      </c>
-      <c r="K486" t="inlineStr"/>
+        <v>3004</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16480,17 +16940,17 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>2971</v>
       </c>
       <c r="J487" t="n">
-        <v>2971</v>
+        <v>3004</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L487" t="n">
@@ -16521,17 +16981,17 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>2971</v>
       </c>
       <c r="J488" t="n">
-        <v>2971</v>
+        <v>3004</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16562,11 +17022,19 @@
         <v>-78886.40600830408</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2971</v>
+      </c>
+      <c r="J489" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16595,11 +17063,19 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2965</v>
+      </c>
+      <c r="J490" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16628,11 +17104,19 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>2971</v>
+      </c>
+      <c r="J491" t="n">
+        <v>3004</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16661,15 +17145,17 @@
         <v>-81021.40690830408</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>2971</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3004</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L492" t="n">
@@ -16700,12 +17186,14 @@
         <v>-80777.60950830409</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>2961</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3004</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16739,12 +17227,14 @@
         <v>-81779.60950830409</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>2971</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3004</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16778,12 +17268,14 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>2960</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3004</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16817,10 +17309,14 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2959</v>
+      </c>
+      <c r="J496" t="n">
+        <v>3004</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16854,12 +17350,14 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>2959</v>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3004</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16893,10 +17391,14 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2959</v>
+      </c>
+      <c r="J498" t="n">
+        <v>3004</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16930,12 +17432,14 @@
         <v>-81477.03160830408</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>2959</v>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3004</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,12 +17473,14 @@
         <v>-81493.21640830408</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>2960</v>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3004</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17008,12 +17514,14 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>2959</v>
       </c>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3004</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17047,12 +17555,14 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>2957</v>
       </c>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3004</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17086,12 +17596,14 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>2957</v>
       </c>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3004</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17125,12 +17637,14 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>2960</v>
       </c>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3004</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17164,12 +17678,14 @@
         <v>-84815.89450830409</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>2960</v>
       </c>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3004</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17203,12 +17719,14 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I506" t="n">
         <v>2957</v>
       </c>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3004</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,7 +17763,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3004</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17279,12 +17799,12 @@
         <v>-84497.11240830409</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>2963</v>
-      </c>
-      <c r="J508" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3004</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17321,7 +17841,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3004</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17355,12 +17877,14 @@
         <v>-84402.5216083041</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>2960</v>
       </c>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3004</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17394,12 +17918,14 @@
         <v>-83147.5463083041</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>2968</v>
       </c>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3004</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17436,7 +17962,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3004</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17473,7 +18001,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3004</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17510,7 +18040,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3004</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17544,10 +18076,14 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2972</v>
+      </c>
+      <c r="J515" t="n">
+        <v>3004</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,10 +18117,14 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J516" t="n">
+        <v>3004</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17618,10 +18158,14 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J517" t="n">
+        <v>3004</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17655,12 +18199,12 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J518" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3004</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17694,12 +18238,12 @@
         <v>-82659.43545460969</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J519" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3004</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17733,12 +18277,12 @@
         <v>-83026.61305460968</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>2991</v>
-      </c>
-      <c r="J520" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3004</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17772,12 +18316,12 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>2980</v>
-      </c>
-      <c r="J521" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3004</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17811,12 +18355,12 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J522" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3004</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17850,12 +18394,12 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J523" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3004</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17889,12 +18433,12 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J524" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3004</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17928,12 +18472,12 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J525" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3004</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17970,7 +18514,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3004</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18004,12 +18550,12 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J527" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3004</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18043,12 +18589,12 @@
         <v>-83061.08295460969</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J528" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3004</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18082,12 +18628,12 @@
         <v>-82850.44045460969</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>2984</v>
-      </c>
-      <c r="J529" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3004</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18124,7 +18670,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3004</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18158,12 +18706,14 @@
         <v>-82850.44045460969</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>2992</v>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3004</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18197,12 +18747,14 @@
         <v>-81696.63705460969</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>2992</v>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3004</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18236,12 +18788,12 @@
         <v>-81696.63705460969</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>3000</v>
-      </c>
-      <c r="J533" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3004</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18275,12 +18827,14 @@
         <v>-81680.46765460969</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>3000</v>
       </c>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3004</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18317,7 +18871,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3004</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18354,7 +18910,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3004</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18391,7 +18949,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3004</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18428,7 +18988,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3004</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18462,12 +19024,12 @@
         <v>-90537.94965460969</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>3013</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3004</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,12 +19063,12 @@
         <v>-90437.94965460969</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="n">
-        <v>3016</v>
-      </c>
-      <c r="J540" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3004</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18543,7 +19105,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3004</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18577,12 +19141,12 @@
         <v>-89044.99135460969</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="n">
-        <v>3007</v>
-      </c>
-      <c r="J542" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3004</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18619,7 +19183,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3004</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18656,7 +19222,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3004</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18693,7 +19261,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3004</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,12 +19297,14 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>3007</v>
       </c>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3004</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18766,12 +19338,14 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>3007</v>
       </c>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3004</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,12 +19379,14 @@
         <v>-90282.3602546097</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>3007</v>
       </c>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3004</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,12 +19420,12 @@
         <v>-90516.84675460969</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>3005</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3004</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18886,7 +19462,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3004</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18923,7 +19501,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3004</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18957,10 +19537,14 @@
         <v>-91202.12675460969</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2987</v>
+      </c>
+      <c r="J552" t="n">
+        <v>3004</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18997,7 +19581,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3004</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19031,10 +19617,14 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2986</v>
+      </c>
+      <c r="J554" t="n">
+        <v>3004</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19068,10 +19658,14 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J555" t="n">
+        <v>3004</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19105,12 +19699,14 @@
         <v>-91057.09515460971</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>2985</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3004</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19144,12 +19740,14 @@
         <v>-91046.08055460971</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>2983</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3004</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19183,12 +19781,14 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>2985</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3004</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19222,10 +19822,14 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2983</v>
+      </c>
+      <c r="J559" t="n">
+        <v>3004</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19259,12 +19863,14 @@
         <v>-91351.33535460971</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>2983</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3004</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19298,10 +19904,14 @@
         <v>-89614.4296546097</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2988</v>
+      </c>
+      <c r="J561" t="n">
+        <v>3004</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19335,10 +19945,14 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J562" t="n">
+        <v>3004</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19372,10 +19986,14 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2991</v>
+      </c>
+      <c r="J563" t="n">
+        <v>3004</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19412,7 +20030,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3004</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19449,7 +20069,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3004</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19486,7 +20108,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3004</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19523,7 +20147,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3004</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19560,7 +20186,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3004</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19597,7 +20225,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3004</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19634,7 +20264,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3004</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19671,7 +20303,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3004</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19705,10 +20339,14 @@
         <v>-88865.1859546097</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>2990</v>
+      </c>
+      <c r="J572" t="n">
+        <v>3004</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19745,7 +20383,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3004</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19782,7 +20422,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3004</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,7 +20461,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3004</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19856,7 +20500,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3004</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19893,7 +20539,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3004</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19927,10 +20575,14 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J578" t="n">
+        <v>3004</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19964,10 +20616,14 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J579" t="n">
+        <v>3004</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20001,10 +20657,14 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J580" t="n">
+        <v>3004</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20038,12 +20698,14 @@
         <v>-88840.5515546097</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>2992</v>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3004</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20077,10 +20739,14 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>2989</v>
+      </c>
+      <c r="J582" t="n">
+        <v>3004</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20114,12 +20780,14 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>2992</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3004</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20153,10 +20821,14 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J584" t="n">
+        <v>3004</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20190,10 +20862,14 @@
         <v>-86377.7393546097</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J585" t="n">
+        <v>3004</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20227,10 +20903,14 @@
         <v>-86377.7393546097</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>2998</v>
+      </c>
+      <c r="J586" t="n">
+        <v>3004</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20267,7 +20947,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3004</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20304,7 +20986,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3004</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20341,7 +21025,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3004</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20378,7 +21064,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3004</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20415,7 +21103,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3004</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20452,7 +21142,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3004</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20489,7 +21181,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3004</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20526,7 +21220,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3004</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20563,7 +21259,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3004</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20600,7 +21298,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3004</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20637,7 +21337,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3004</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20674,7 +21376,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3004</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20711,7 +21415,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3004</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20748,7 +21454,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3004</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20785,7 +21493,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3004</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20822,7 +21532,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3004</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20859,7 +21571,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3004</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20896,7 +21610,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3004</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20933,7 +21649,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3004</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20970,7 +21688,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3004</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21007,7 +21727,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3004</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21044,7 +21766,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3004</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21081,7 +21805,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3004</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21118,7 +21844,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3004</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21155,7 +21883,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3004</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21192,7 +21922,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3004</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21229,7 +21961,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3004</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21266,7 +22000,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3004</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21300,10 +22036,14 @@
         <v>-79091.44605159982</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>3056</v>
+      </c>
+      <c r="J615" t="n">
+        <v>3004</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,7 +22080,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3004</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21374,10 +22116,14 @@
         <v>-79320.45135159983</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J617" t="n">
+        <v>3004</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21414,7 +22160,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3004</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21451,7 +22199,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3004</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21485,10 +22235,14 @@
         <v>-78534.43665159983</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>3056</v>
+      </c>
+      <c r="J620" t="n">
+        <v>3004</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21522,10 +22276,14 @@
         <v>-78534.43665159983</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J621" t="n">
+        <v>3004</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21559,10 +22317,14 @@
         <v>-78243.97365159982</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J622" t="n">
+        <v>3004</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21596,10 +22358,14 @@
         <v>-78241.97365159982</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J623" t="n">
+        <v>3004</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21633,10 +22399,14 @@
         <v>-81215.28510731665</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>3056</v>
+      </c>
+      <c r="J624" t="n">
+        <v>3004</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21673,7 +22443,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3004</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21710,7 +22482,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3004</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21747,7 +22521,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3004</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21784,7 +22560,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3004</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21821,7 +22599,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3004</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21858,7 +22638,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3004</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21895,7 +22677,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3004</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21932,7 +22716,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3004</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21969,7 +22755,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3004</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22006,7 +22794,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3004</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22043,7 +22833,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3004</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22080,7 +22872,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3004</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22114,10 +22908,14 @@
         <v>-84340.0506619123</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>3055</v>
+      </c>
+      <c r="J637" t="n">
+        <v>3004</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22151,10 +22949,14 @@
         <v>-85235.18926191231</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>3054</v>
+      </c>
+      <c r="J638" t="n">
+        <v>3004</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22188,10 +22990,14 @@
         <v>-85403.59596191232</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>3052</v>
+      </c>
+      <c r="J639" t="n">
+        <v>3004</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22225,10 +23031,14 @@
         <v>-86172.08076191232</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>3051</v>
+      </c>
+      <c r="J640" t="n">
+        <v>3004</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22262,10 +23072,14 @@
         <v>-85522.53856191233</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3050</v>
+      </c>
+      <c r="J641" t="n">
+        <v>3004</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22302,7 +23116,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3004</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22336,10 +23152,14 @@
         <v>-88947.41964835633</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>3054</v>
+      </c>
+      <c r="J643" t="n">
+        <v>3004</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22373,10 +23193,14 @@
         <v>-88948.30364835633</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>3054</v>
+      </c>
+      <c r="J644" t="n">
+        <v>3004</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22410,10 +23234,14 @@
         <v>-88128.81494835633</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>3048</v>
+      </c>
+      <c r="J645" t="n">
+        <v>3004</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22450,7 +23278,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3004</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22487,7 +23317,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3004</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22524,7 +23356,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3004</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22561,7 +23395,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3004</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22598,7 +23434,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3004</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22635,7 +23473,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3004</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22672,7 +23512,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3004</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22709,7 +23551,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3004</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22746,7 +23590,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3004</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,7 +23629,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3004</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22820,7 +23668,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3004</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22857,7 +23707,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3004</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22894,7 +23746,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3004</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22931,7 +23785,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3004</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22968,7 +23824,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3004</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23005,7 +23863,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3004</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23042,7 +23902,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3004</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23079,7 +23941,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3004</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23116,7 +23980,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3004</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23153,7 +24019,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3004</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23190,7 +24058,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3004</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23227,7 +24097,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3004</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23264,7 +24136,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3004</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23301,7 +24175,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3004</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23338,7 +24214,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3004</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23375,7 +24253,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3004</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23412,7 +24292,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3004</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23449,7 +24331,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3004</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23486,7 +24370,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3004</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23523,7 +24409,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3004</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23560,7 +24448,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3004</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23597,7 +24487,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3004</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23634,7 +24526,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3004</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23671,7 +24565,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3004</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23708,7 +24604,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3004</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23745,7 +24643,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3004</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23782,7 +24682,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3004</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23819,7 +24721,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3004</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23856,7 +24760,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3004</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23893,7 +24799,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3004</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23930,7 +24838,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3004</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23967,7 +24877,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3004</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24004,7 +24916,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3004</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24041,7 +24955,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3004</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24078,7 +24994,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3004</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24115,7 +25033,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3004</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24152,7 +25072,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3004</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24189,7 +25111,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3004</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,7 +25150,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3004</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24263,7 +25189,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3004</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24300,7 +25228,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3004</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24337,7 +25267,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3004</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24374,7 +25306,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3004</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24411,7 +25345,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3004</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24448,7 +25384,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3004</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24485,7 +25423,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3004</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24522,7 +25462,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3004</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24559,7 +25501,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3004</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24596,7 +25540,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3004</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24633,7 +25579,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3004</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24670,7 +25618,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3004</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24707,7 +25657,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3004</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24744,7 +25696,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3004</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24781,7 +25735,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3004</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24818,7 +25774,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3004</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24855,7 +25813,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3004</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24892,7 +25852,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3004</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24929,7 +25891,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3004</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24966,7 +25930,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3004</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25003,7 +25969,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3004</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25040,7 +26008,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3004</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25077,7 +26047,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3004</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25114,7 +26086,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3004</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25151,7 +26125,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3004</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25188,7 +26164,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3004</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25225,7 +26203,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3004</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25262,7 +26242,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3004</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25299,7 +26281,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3004</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25336,7 +26320,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3004</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25373,7 +26359,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3004</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25410,7 +26398,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3004</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25447,7 +26437,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3004</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25484,7 +26476,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3004</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25521,7 +26515,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3004</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25558,7 +26554,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3004</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25595,7 +26593,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3004</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25632,7 +26632,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3004</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25669,7 +26671,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3004</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25706,7 +26710,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3004</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25743,7 +26749,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3004</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25780,7 +26788,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3004</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25817,7 +26827,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3004</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25854,7 +26866,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3004</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25891,7 +26905,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3004</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25928,7 +26944,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3004</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25965,7 +26983,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3004</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26002,7 +27022,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3004</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26039,7 +27061,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3004</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26076,7 +27100,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3004</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26113,7 +27139,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3004</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26150,7 +27178,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3004</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26187,7 +27217,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3004</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26224,7 +27256,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3004</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26261,7 +27295,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3004</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26298,7 +27334,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3004</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26335,7 +27373,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3004</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26372,7 +27412,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3004</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26409,7 +27451,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3004</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26446,7 +27490,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3004</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26483,7 +27529,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3004</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26520,7 +27568,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3004</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26557,7 +27607,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3004</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26594,7 +27646,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3004</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26631,7 +27685,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3004</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26668,7 +27724,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3004</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26705,7 +27763,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3004</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26742,7 +27802,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3004</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26779,7 +27841,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3004</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26816,7 +27880,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3004</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26853,7 +27919,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3004</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26890,7 +27958,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3004</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26927,7 +27997,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3004</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26964,7 +28036,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3004</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27001,7 +28075,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3004</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27038,7 +28114,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3004</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27075,7 +28153,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3004</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27112,7 +28192,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3004</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27149,7 +28231,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3004</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27186,7 +28270,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3004</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27223,7 +28309,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3004</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27260,7 +28348,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3004</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27297,7 +28387,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3004</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27334,7 +28426,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3004</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27371,7 +28465,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3004</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27408,7 +28504,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3004</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27445,7 +28543,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3004</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27482,7 +28582,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3004</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27519,7 +28621,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3004</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27556,7 +28660,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3004</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27593,7 +28699,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3004</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27630,7 +28738,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3004</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27667,7 +28777,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3004</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27704,7 +28816,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3004</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27741,7 +28855,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3004</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27778,7 +28894,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3004</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27815,7 +28933,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3004</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27852,7 +28972,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3004</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27889,7 +29011,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3004</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27926,7 +29050,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3004</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27963,7 +29089,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3004</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28000,7 +29128,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3004</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28037,7 +29167,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3004</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28074,7 +29206,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3004</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28111,7 +29245,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3004</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28148,7 +29284,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3004</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28160,6 +29298,6 @@
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest LINK.xlsx
+++ b/BackTest/2020-01-19 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-7310.687967984119</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-8447.942167984118</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3572.810267984118</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1525.29083800346</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2556.01543800346</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7135.353138003459</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-7135.103138003459</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-12820.27393800346</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-12620.27393800346</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-13351.08983800346</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-13867.62903800346</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-13864.42903800346</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-13855.56553800346</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-14483.46573800346</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-11885.79711450655</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-11893.48981450655</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-11886.49341450655</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-12659.17511450654</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-12639.17511450654</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-8022.321514506544</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-8754.036314506544</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-10945.31161450655</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10751.88291450654</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-13001.89291450654</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-11880.7398508128</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-11986.542898147</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-12127.810798147</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-10762.565098147</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-10762.565098147</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9356.686898147003</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-8063.609598147003</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8292.591498147003</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-5047.279898082654</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5048.075198082654</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9237.554398082653</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9069.125698082653</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-8660.851458076226</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9078.842658076226</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-10528.38135807623</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-10528.38135807623</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-10293.97775807623</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-10602.61925807623</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-10602.99035182623</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-10329.41745182623</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-10444.51615182623</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-10990.58785182623</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-11572.94365182623</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-11626.25535182623</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-11629.76835182623</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-11629.76835182623</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-11813.96105182623</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-11915.78235182623</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-11958.65325182623</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-13366.22055182623</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-15562.62655182623</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-15562.62655182623</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-13163.72175182623</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-14693.79005182622</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-14323.50675182623</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-14269.22505182623</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-14248.33245182623</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-14118.48435182623</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-12993.69405182623</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-13060.13897395656</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-12962.40067580597</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-12995.43668505605</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-14037.96748505605</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-19644.4349923584</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-19921.3295923584</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-19901.70045620131</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-20789.4725562013</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-24037.1877562013</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-24363.6077562013</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-24255.6077562013</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-24572.0192562013</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-24605.0116562013</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-24520.4423562013</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-24711.4379562013</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-24740.6980562013</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-26210.6484562013</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-26829.5649562013</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-27491.0314562013</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-28295.0951562013</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-30412.9789562013</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-30364.4643562013</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-30363.4643562013</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-28113.07722210852</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-28520.67592210852</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-27333.29472210852</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-28303.32392210851</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-28139.26125201205</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-28247.88195201205</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-31434.17895201205</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-31433.17895201205</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-31502.13375201205</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-31921.87825201205</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-31920.87825201205</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-32248.31205201205</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-33248.97205201205</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-33224.29028566901</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-33441.11698566901</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-32415.41478566901</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-35043.93978566901</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-34989.81818566901</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-37453.81448566901</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-37453.81448566901</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-38345.58708566901</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-37889.47027524155</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-38308.43077524155</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-38308.43077524155</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-38985.33482607135</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-39904.09492607135</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-40457.23272607135</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-42768.70222607135</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-42655.58202607135</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-44291.44112607135</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-41335.89578814032</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-41350.99578814032</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-43638.99578814032</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-43637.99578814032</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-43637.99578814032</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-44729.40258814031</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-42026.44108814032</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-42155.34868814032</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-41956.30348814031</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-41659.29078814032</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-60844.43266916067</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-60860.66416916067</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-60899.34136916067</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-61338.21916916067</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-60696.07055799116</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-60622.71515799116</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-60621.31515799116</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-60722.50315799116</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-60999.36775799116</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-61456.42625799116</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-61492.42625799116</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-61724.08815799116</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-61723.39815799116</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-61730.41325799115</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-61809.91715799116</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,14 +14047,10 @@
         <v>-63222.22365799116</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>3004</v>
-      </c>
-      <c r="J414" t="n">
-        <v>3004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
@@ -14084,612 +14080,518 @@
         <v>-61705.65315799115</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>3002</v>
+      </c>
+      <c r="C416" t="n">
+        <v>3001</v>
+      </c>
+      <c r="D416" t="n">
+        <v>3002</v>
+      </c>
+      <c r="E416" t="n">
+        <v>3001</v>
+      </c>
+      <c r="F416" t="n">
+        <v>1135</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-62840.65315799115</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C417" t="n">
+        <v>3001</v>
+      </c>
+      <c r="D417" t="n">
+        <v>3011</v>
+      </c>
+      <c r="E417" t="n">
+        <v>3001</v>
+      </c>
+      <c r="F417" t="n">
+        <v>633.6529358020591</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-62840.65315799115</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
         <v>3003</v>
       </c>
-      <c r="J415" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K415" t="inlineStr">
+      <c r="C418" t="n">
+        <v>2997</v>
+      </c>
+      <c r="D418" t="n">
+        <v>3009</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2997</v>
+      </c>
+      <c r="F418" t="n">
+        <v>5956.6</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-68797.25315799116</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2994</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2994</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2994</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2994</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.7894</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-68798.04255799115</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2991</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2991</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2991</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2991</v>
+      </c>
+      <c r="F420" t="n">
+        <v>6.1994</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-68804.24195799115</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2984</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2984</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2984</v>
+      </c>
+      <c r="F421" t="n">
+        <v>44.0099</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-68848.25185799116</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2991</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2991</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2984</v>
+      </c>
+      <c r="F422" t="n">
+        <v>351.0064</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-68497.24545799116</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2991</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2991</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2983</v>
+      </c>
+      <c r="F423" t="n">
+        <v>214.2215</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-68497.24545799116</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2990</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2983</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2990</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2983</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1282.6781</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-69779.92355799116</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2983</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2983</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2983</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2983</v>
+      </c>
+      <c r="F425" t="n">
+        <v>95.533</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-69779.92355799116</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2983</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2959</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2983</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2959</v>
+      </c>
+      <c r="F426" t="n">
+        <v>4656.7352</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-74436.65875799116</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2959</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2959</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2950</v>
+      </c>
+      <c r="F427" t="n">
+        <v>4985.2904</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-79421.94915799116</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2950</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2950</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2950</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2950</v>
+      </c>
+      <c r="F428" t="n">
+        <v>5366.4809</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-79421.94915799116</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2929</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2929</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2929</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2929</v>
+      </c>
+      <c r="F429" t="n">
+        <v>31.6618</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-79453.61095799116</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2950</v>
+      </c>
+      <c r="J429" t="n">
+        <v>2950</v>
+      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2929</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2941</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2941</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2929</v>
+      </c>
+      <c r="F430" t="n">
+        <v>2608.9466</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-76844.66435799116</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>2929</v>
+      </c>
+      <c r="J430" t="n">
+        <v>2950</v>
+      </c>
+      <c r="K430" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>3002</v>
-      </c>
-      <c r="C416" t="n">
-        <v>3001</v>
-      </c>
-      <c r="D416" t="n">
-        <v>3002</v>
-      </c>
-      <c r="E416" t="n">
-        <v>3001</v>
-      </c>
-      <c r="F416" t="n">
-        <v>1135</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-62840.65315799115</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>3011</v>
-      </c>
-      <c r="C417" t="n">
-        <v>3001</v>
-      </c>
-      <c r="D417" t="n">
-        <v>3011</v>
-      </c>
-      <c r="E417" t="n">
-        <v>3001</v>
-      </c>
-      <c r="F417" t="n">
-        <v>633.6529358020591</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-62840.65315799115</v>
-      </c>
-      <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>3001</v>
-      </c>
-      <c r="J417" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>3003</v>
-      </c>
-      <c r="C418" t="n">
-        <v>2997</v>
-      </c>
-      <c r="D418" t="n">
-        <v>3009</v>
-      </c>
-      <c r="E418" t="n">
-        <v>2997</v>
-      </c>
-      <c r="F418" t="n">
-        <v>5956.6</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-68797.25315799116</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>2994</v>
-      </c>
-      <c r="C419" t="n">
-        <v>2994</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2994</v>
-      </c>
-      <c r="E419" t="n">
-        <v>2994</v>
-      </c>
-      <c r="F419" t="n">
-        <v>0.7894</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-68798.04255799115</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>2991</v>
-      </c>
-      <c r="C420" t="n">
-        <v>2991</v>
-      </c>
-      <c r="D420" t="n">
-        <v>2991</v>
-      </c>
-      <c r="E420" t="n">
-        <v>2991</v>
-      </c>
-      <c r="F420" t="n">
-        <v>6.1994</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-68804.24195799115</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>2984</v>
-      </c>
-      <c r="C421" t="n">
-        <v>2984</v>
-      </c>
-      <c r="D421" t="n">
-        <v>2984</v>
-      </c>
-      <c r="E421" t="n">
-        <v>2984</v>
-      </c>
-      <c r="F421" t="n">
-        <v>44.0099</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-68848.25185799116</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>2984</v>
-      </c>
-      <c r="C422" t="n">
-        <v>2991</v>
-      </c>
-      <c r="D422" t="n">
-        <v>2991</v>
-      </c>
-      <c r="E422" t="n">
-        <v>2984</v>
-      </c>
-      <c r="F422" t="n">
-        <v>351.0064</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-68497.24545799116</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>2984</v>
-      </c>
-      <c r="C423" t="n">
-        <v>2991</v>
-      </c>
-      <c r="D423" t="n">
-        <v>2991</v>
-      </c>
-      <c r="E423" t="n">
-        <v>2983</v>
-      </c>
-      <c r="F423" t="n">
-        <v>214.2215</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-68497.24545799116</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>2990</v>
-      </c>
-      <c r="C424" t="n">
-        <v>2983</v>
-      </c>
-      <c r="D424" t="n">
-        <v>2990</v>
-      </c>
-      <c r="E424" t="n">
-        <v>2983</v>
-      </c>
-      <c r="F424" t="n">
-        <v>1282.6781</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-69779.92355799116</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>2983</v>
-      </c>
-      <c r="C425" t="n">
-        <v>2983</v>
-      </c>
-      <c r="D425" t="n">
-        <v>2983</v>
-      </c>
-      <c r="E425" t="n">
-        <v>2983</v>
-      </c>
-      <c r="F425" t="n">
-        <v>95.533</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-69779.92355799116</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>2983</v>
-      </c>
-      <c r="C426" t="n">
-        <v>2959</v>
-      </c>
-      <c r="D426" t="n">
-        <v>2983</v>
-      </c>
-      <c r="E426" t="n">
-        <v>2959</v>
-      </c>
-      <c r="F426" t="n">
-        <v>4656.7352</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-74436.65875799116</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>2983</v>
-      </c>
-      <c r="J426" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>2959</v>
-      </c>
-      <c r="C427" t="n">
-        <v>2950</v>
-      </c>
-      <c r="D427" t="n">
-        <v>2959</v>
-      </c>
-      <c r="E427" t="n">
-        <v>2950</v>
-      </c>
-      <c r="F427" t="n">
-        <v>4985.2904</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-79421.94915799116</v>
-      </c>
-      <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>2950</v>
-      </c>
-      <c r="C428" t="n">
-        <v>2950</v>
-      </c>
-      <c r="D428" t="n">
-        <v>2950</v>
-      </c>
-      <c r="E428" t="n">
-        <v>2950</v>
-      </c>
-      <c r="F428" t="n">
-        <v>5366.4809</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-79421.94915799116</v>
-      </c>
-      <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>2950</v>
-      </c>
-      <c r="J428" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>2929</v>
-      </c>
-      <c r="C429" t="n">
-        <v>2929</v>
-      </c>
-      <c r="D429" t="n">
-        <v>2929</v>
-      </c>
-      <c r="E429" t="n">
-        <v>2929</v>
-      </c>
-      <c r="F429" t="n">
-        <v>31.6618</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-79453.61095799116</v>
-      </c>
-      <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>2929</v>
-      </c>
-      <c r="C430" t="n">
-        <v>2941</v>
-      </c>
-      <c r="D430" t="n">
-        <v>2941</v>
-      </c>
-      <c r="E430" t="n">
-        <v>2929</v>
-      </c>
-      <c r="F430" t="n">
-        <v>2608.9466</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-76844.66435799116</v>
-      </c>
-      <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>2929</v>
-      </c>
-      <c r="J430" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14724,7 +14626,7 @@
         <v>2941</v>
       </c>
       <c r="J431" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14765,7 +14667,7 @@
         <v>2952</v>
       </c>
       <c r="J432" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14806,7 +14708,7 @@
         <v>2956</v>
       </c>
       <c r="J433" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14847,7 +14749,7 @@
         <v>2962</v>
       </c>
       <c r="J434" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14882,13 +14784,11 @@
         <v>-75652.0654083041</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>2962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14923,13 +14823,11 @@
         <v>-75776.7240083041</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>2970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -14964,13 +14862,11 @@
         <v>-75700.2180083041</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15005,13 +14901,11 @@
         <v>-74982.75700830411</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>2963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15046,13 +14940,11 @@
         <v>-74982.75700830411</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>2965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15087,13 +14979,11 @@
         <v>-74306.4257083041</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>2965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15128,13 +15018,11 @@
         <v>-74788.9020083041</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>2966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15169,13 +15057,11 @@
         <v>-74015.46380830409</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>2965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15210,13 +15096,11 @@
         <v>-74015.46380830409</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>2966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15255,7 +15139,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15294,7 +15178,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15333,7 +15217,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15372,7 +15256,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15411,7 +15295,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15450,7 +15334,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15489,7 +15373,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15528,7 +15412,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15567,7 +15451,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15606,7 +15490,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15645,7 +15529,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15684,7 +15568,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15723,7 +15607,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15762,7 +15646,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15801,7 +15685,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15840,7 +15724,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15879,7 +15763,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15918,7 +15802,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15957,7 +15841,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15996,7 +15880,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16035,7 +15919,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16074,7 +15958,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16113,7 +15997,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16152,7 +16036,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16191,7 +16075,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16230,7 +16114,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16269,7 +16153,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16308,7 +16192,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16347,7 +16231,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16386,7 +16270,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16425,7 +16309,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16464,7 +16348,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16503,7 +16387,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16542,7 +16426,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16581,7 +16465,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16620,7 +16504,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16655,13 +16539,11 @@
         <v>-79141.03900830408</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>2970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16700,7 +16582,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16735,13 +16617,11 @@
         <v>-79175.70320830408</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16776,13 +16656,11 @@
         <v>-79174.70320830408</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>2964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16817,13 +16695,11 @@
         <v>-79264.54100830408</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16858,13 +16734,11 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>2965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16899,13 +16773,11 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16940,13 +16812,11 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16981,13 +16851,11 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17022,13 +16890,11 @@
         <v>-78886.40600830408</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17063,13 +16929,11 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>2965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17104,13 +16968,11 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17145,13 +17007,11 @@
         <v>-81021.40690830408</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17186,13 +17046,11 @@
         <v>-80777.60950830409</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>2961</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17227,13 +17085,11 @@
         <v>-81779.60950830409</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>2971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17268,13 +17124,11 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17309,13 +17163,11 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>2959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17350,13 +17202,11 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>2959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17391,13 +17241,11 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>2959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17432,13 +17280,11 @@
         <v>-81477.03160830408</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>2959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17473,13 +17319,11 @@
         <v>-81493.21640830408</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17514,13 +17358,11 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>2959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17555,13 +17397,11 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>2957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17596,13 +17436,11 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>2957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17637,13 +17475,11 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17678,13 +17514,11 @@
         <v>-84815.89450830409</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17719,13 +17553,11 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>2957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17764,7 +17596,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17803,7 +17635,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17842,7 +17674,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17877,13 +17709,11 @@
         <v>-84402.5216083041</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>2960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17918,13 +17748,11 @@
         <v>-83147.5463083041</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>2968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17963,7 +17791,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -18002,7 +17830,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -18041,7 +17869,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -18076,13 +17904,11 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>2972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -18117,13 +17943,11 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>2985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18158,13 +17982,11 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>2985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18203,7 +18025,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18242,7 +18064,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18281,7 +18103,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18320,7 +18142,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18359,7 +18181,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18398,7 +18220,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18437,7 +18259,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18476,7 +18298,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18515,7 +18337,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18554,7 +18376,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18593,7 +18415,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18632,7 +18454,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18671,7 +18493,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18706,13 +18528,11 @@
         <v>-82850.44045460969</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18747,13 +18567,11 @@
         <v>-81696.63705460969</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>2992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18792,7 +18610,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18827,13 +18645,11 @@
         <v>-81680.46765460969</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18872,7 +18688,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18911,7 +18727,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18950,7 +18766,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18989,7 +18805,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19028,7 +18844,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19067,7 +18883,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19106,7 +18922,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19145,7 +18961,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19184,7 +19000,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19219,19 +19035,19 @@
         <v>-89159.87035460969</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>3004</v>
+        <v>2950</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L544" t="n">
-        <v>1</v>
+        <v>1.014661016949153</v>
       </c>
       <c r="M544" t="inlineStr"/>
     </row>
@@ -19258,17 +19074,11 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19297,19 +19107,11 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>3007</v>
-      </c>
-      <c r="J546" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19338,19 +19140,11 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>3007</v>
-      </c>
-      <c r="J547" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19379,19 +19173,11 @@
         <v>-90282.3602546097</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>3007</v>
-      </c>
-      <c r="J548" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19420,17 +19206,11 @@
         <v>-90516.84675460969</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19459,17 +19239,11 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19501,14 +19275,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19537,19 +19305,11 @@
         <v>-91202.12675460969</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>2987</v>
-      </c>
-      <c r="J552" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19581,14 +19341,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19617,19 +19371,11 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>2986</v>
-      </c>
-      <c r="J554" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19658,19 +19404,11 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J555" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19699,19 +19437,11 @@
         <v>-91057.09515460971</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J556" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19740,19 +19470,11 @@
         <v>-91046.08055460971</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>2983</v>
-      </c>
-      <c r="J557" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19781,19 +19503,11 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>2985</v>
-      </c>
-      <c r="J558" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19822,19 +19536,11 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>2983</v>
-      </c>
-      <c r="J559" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19863,19 +19569,11 @@
         <v>-91351.33535460971</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>2983</v>
-      </c>
-      <c r="J560" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19904,19 +19602,11 @@
         <v>-89614.4296546097</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>2988</v>
-      </c>
-      <c r="J561" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19945,19 +19635,11 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J562" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19986,19 +19668,11 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>2991</v>
-      </c>
-      <c r="J563" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20027,17 +19701,11 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20069,14 +19737,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20108,14 +19770,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20147,14 +19803,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20186,14 +19836,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20225,14 +19869,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20264,14 +19902,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20303,14 +19935,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20339,19 +19965,11 @@
         <v>-88865.1859546097</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>2990</v>
-      </c>
-      <c r="J572" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20383,14 +20001,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20422,14 +20034,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20461,14 +20067,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20500,14 +20100,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20539,14 +20133,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20575,19 +20163,11 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J578" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20616,19 +20196,11 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J579" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20657,19 +20229,11 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J580" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20698,19 +20262,11 @@
         <v>-88840.5515546097</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J581" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20739,19 +20295,11 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>2989</v>
-      </c>
-      <c r="J582" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20780,19 +20328,11 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>2992</v>
-      </c>
-      <c r="J583" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20827,13 +20367,9 @@
         <v>2992</v>
       </c>
       <c r="J584" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2992</v>
+      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20868,11 +20404,11 @@
         <v>2992</v>
       </c>
       <c r="J585" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L585" t="n">
@@ -20909,7 +20445,7 @@
         <v>2998</v>
       </c>
       <c r="J586" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20944,11 +20480,13 @@
         <v>-85725.3610546097</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>2998</v>
+      </c>
       <c r="J587" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20983,11 +20521,13 @@
         <v>-85725.1110546097</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>2999</v>
+      </c>
       <c r="J588" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -21022,11 +20562,13 @@
         <v>-86811.97085460971</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>3010</v>
+      </c>
       <c r="J589" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -21061,11 +20603,13 @@
         <v>-86130.63765460972</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>2997</v>
+      </c>
       <c r="J590" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -21100,11 +20644,13 @@
         <v>-84680.63765460972</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>3001</v>
+      </c>
       <c r="J591" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -21143,7 +20689,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -21182,7 +20728,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -21221,7 +20767,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -21260,7 +20806,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -21295,19 +20841,19 @@
         <v>-81259.82815460971</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>3004</v>
+        <v>2992</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L596" t="n">
-        <v>1</v>
+        <v>1.014385026737968</v>
       </c>
       <c r="M596" t="inlineStr"/>
     </row>
@@ -21334,17 +20880,11 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21373,17 +20913,11 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21412,17 +20946,11 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21451,17 +20979,11 @@
         <v>-79439.11009160939</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21490,17 +21012,11 @@
         <v>-76476.50359160939</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21529,17 +21045,11 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21568,17 +21078,11 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21610,14 +21114,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21649,14 +21147,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21688,14 +21180,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21727,14 +21213,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21766,14 +21246,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21805,14 +21279,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21844,14 +21312,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21883,14 +21345,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21922,14 +21378,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21961,14 +21411,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22000,14 +21444,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22036,19 +21474,11 @@
         <v>-79091.44605159982</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>3056</v>
-      </c>
-      <c r="J615" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22080,14 +21510,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22116,19 +21540,11 @@
         <v>-79320.45135159983</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>3055</v>
-      </c>
-      <c r="J617" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22160,14 +21576,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22199,14 +21609,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22235,19 +21639,11 @@
         <v>-78534.43665159983</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>3056</v>
-      </c>
-      <c r="J620" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22276,19 +21672,11 @@
         <v>-78534.43665159983</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J621" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22317,19 +21705,11 @@
         <v>-78243.97365159982</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J622" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22358,19 +21738,11 @@
         <v>-78241.97365159982</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>3055</v>
-      </c>
-      <c r="J623" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22399,19 +21771,11 @@
         <v>-81215.28510731665</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>3056</v>
-      </c>
-      <c r="J624" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22443,14 +21807,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22479,17 +21837,11 @@
         <v>-81156.80200731666</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22521,14 +21873,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22560,14 +21906,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22599,14 +21939,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22638,14 +21972,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22677,14 +22005,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22716,14 +22038,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22755,14 +22071,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22794,14 +22104,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22833,14 +22137,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22872,14 +22170,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22908,19 +22200,11 @@
         <v>-84340.0506619123</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>3055</v>
-      </c>
-      <c r="J637" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22949,19 +22233,11 @@
         <v>-85235.18926191231</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>3054</v>
-      </c>
-      <c r="J638" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22990,19 +22266,11 @@
         <v>-85403.59596191232</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>3052</v>
-      </c>
-      <c r="J639" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23031,19 +22299,11 @@
         <v>-86172.08076191232</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>3051</v>
-      </c>
-      <c r="J640" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23072,19 +22332,11 @@
         <v>-85522.53856191233</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>3050</v>
-      </c>
-      <c r="J641" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23116,14 +22368,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23152,19 +22398,11 @@
         <v>-88947.41964835633</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>3054</v>
-      </c>
-      <c r="J643" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23193,19 +22431,11 @@
         <v>-88948.30364835633</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>3054</v>
-      </c>
-      <c r="J644" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23234,19 +22464,11 @@
         <v>-88128.81494835633</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>3048</v>
-      </c>
-      <c r="J645" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23278,14 +22500,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23317,14 +22533,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23356,14 +22566,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23395,14 +22599,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23434,14 +22632,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23473,14 +22665,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23512,14 +22698,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23551,14 +22731,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23590,14 +22764,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23629,14 +22797,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23668,14 +22830,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23707,14 +22863,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23746,14 +22896,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23785,14 +22929,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23824,14 +22962,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23863,14 +22995,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23902,14 +23028,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23941,14 +23061,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23980,14 +23094,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24019,14 +23127,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24058,14 +23160,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24097,14 +23193,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24136,14 +23226,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24175,14 +23259,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24214,14 +23292,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24253,14 +23325,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24292,14 +23358,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24331,14 +23391,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24370,14 +23424,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24409,14 +23457,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24448,14 +23490,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24487,14 +23523,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24526,14 +23556,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24565,14 +23589,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24604,14 +23622,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24643,14 +23655,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24682,14 +23688,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24721,14 +23721,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24760,14 +23754,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24799,14 +23787,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24838,14 +23820,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24877,14 +23853,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24916,14 +23886,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24955,14 +23919,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24994,14 +23952,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25033,14 +23985,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25072,14 +24018,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25111,14 +24051,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25150,14 +24084,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25189,14 +24117,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25228,14 +24150,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25267,14 +24183,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25306,14 +24216,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25345,14 +24249,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25384,14 +24282,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25423,14 +24315,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25462,14 +24348,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25501,14 +24381,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25540,14 +24414,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25579,14 +24447,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25618,14 +24480,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25657,14 +24513,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25696,14 +24546,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25735,14 +24579,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25774,14 +24612,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25813,14 +24645,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25852,14 +24678,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25891,14 +24711,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25930,14 +24744,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25969,14 +24777,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26008,14 +24810,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26047,14 +24843,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26086,14 +24876,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26125,14 +24909,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26164,14 +24942,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26203,14 +24975,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26242,14 +25008,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26281,14 +25041,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26320,14 +25074,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26359,14 +25107,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26398,14 +25140,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26437,14 +25173,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26476,14 +25206,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26515,14 +25239,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26554,14 +25272,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26593,14 +25305,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26632,14 +25338,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26671,14 +25371,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26710,14 +25404,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26749,14 +25437,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26788,14 +25470,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26827,14 +25503,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26866,14 +25536,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26905,14 +25569,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26944,14 +25602,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26983,14 +25635,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27022,14 +25668,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27061,14 +25701,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27100,14 +25734,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27139,14 +25767,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27178,14 +25800,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27217,14 +25833,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27256,14 +25866,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27295,14 +25899,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27334,14 +25932,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27373,14 +25965,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27412,14 +25998,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27451,14 +26031,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27490,14 +26064,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27529,14 +26097,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27568,14 +26130,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27607,14 +26163,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27646,14 +26196,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27685,14 +26229,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27724,14 +26262,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27763,14 +26295,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27802,14 +26328,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27841,14 +26361,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27880,14 +26394,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27919,14 +26427,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27958,14 +26460,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27997,14 +26493,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28036,14 +26526,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28075,14 +26559,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28114,14 +26592,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28153,14 +26625,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28192,14 +26658,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28231,14 +26691,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28270,14 +26724,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -28309,14 +26757,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -28348,14 +26790,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -28387,14 +26823,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -28426,14 +26856,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -28465,14 +26889,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -28504,14 +26922,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28543,14 +26955,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28582,14 +26988,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28621,14 +27021,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28660,14 +27054,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28699,14 +27087,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28738,14 +27120,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28777,14 +27153,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28816,14 +27186,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28855,14 +27219,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28894,14 +27252,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28933,14 +27285,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28972,14 +27318,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29011,14 +27351,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29050,14 +27384,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29089,14 +27417,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29128,14 +27450,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29167,14 +27483,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29206,14 +27516,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -29245,14 +27549,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -29284,20 +27582,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3004</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
       <c r="M800" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest LINK.xlsx
+++ b/BackTest/2020-01-19 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>-7310.687967984119</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-8447.942167984118</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3572.810267984118</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3535.252567984118</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3042.649267984118</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1224.81083800346</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1525.29083800346</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2556.01543800346</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2657.48853800346</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7440.174738003459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7135.353138003459</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6847.41133800346</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-8292.591498147003</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-5048.075198082654</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9811.623898082653</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9237.554398082653</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9069.125698082653</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9215.479598082653</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-8660.851458076226</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-9035.454058076226</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-9078.842658076226</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-19644.4349923584</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-19590.2839923584</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-19338.6400923584</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-19921.3295923584</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-19713.11385620131</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-19901.70045620131</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-20789.4725562013</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-24037.1877562013</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-24363.6077562013</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-24255.6077562013</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-24572.0192562013</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-24605.0116562013</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-24520.4423562013</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-24464.1812562013</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-24711.4379562013</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-24737.6980562013</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-24740.6980562013</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-26210.6484562013</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-26829.5649562013</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-27491.0314562013</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-28295.0951562013</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-30412.9789562013</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-30364.4643562013</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-30363.4643562013</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-30338.1062562013</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-24259.65754956949</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-26203.31786584262</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-29774.69506584262</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-25775.09142210852</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-28113.07722210852</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-28520.67592210852</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-27810.17672210852</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-27333.29472210852</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-28057.56552210851</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-28303.32392210851</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-28139.26125201205</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-28247.88195201205</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-31434.17895201205</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-31502.13375201205</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-32431.48535201205</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-32248.31205201205</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-33248.97205201205</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-33224.29028566901</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-33441.11698566901</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-32415.41478566901</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-32946.32088566901</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-35043.93978566901</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-34989.81818566901</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-37453.81448566901</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-60844.43266916067</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-60860.66416916067</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-60899.34136916067</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-60910.34136916067</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-61338.21916916067</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-60696.07055799116</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-60622.71515799116</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-60621.31515799116</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-60722.50315799116</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-60722.97815799116</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-61002.13195799116</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-60999.36775799116</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-61420.32825799116</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-61456.42625799116</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-61492.42625799116</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-61724.08815799116</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-61723.39815799116</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-61730.41325799115</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-61809.91715799116</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14542,14 +14542,10 @@
         <v>-79453.61095799116</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>2950</v>
-      </c>
-      <c r="J429" t="n">
-        <v>2950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
@@ -14579,19 +14575,11 @@
         <v>-76844.66435799116</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>2929</v>
-      </c>
-      <c r="J430" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14620,19 +14608,11 @@
         <v>-76689.69895799116</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>2941</v>
-      </c>
-      <c r="J431" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14661,19 +14641,11 @@
         <v>-76685.73795799116</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>2952</v>
-      </c>
-      <c r="J432" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14702,19 +14674,11 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>2956</v>
-      </c>
-      <c r="J433" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14743,19 +14707,11 @@
         <v>-76507.01851167111</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2962</v>
-      </c>
-      <c r="J434" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14787,14 +14743,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14826,14 +14776,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14865,14 +14809,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14904,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14943,14 +14875,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14982,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15021,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15060,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15099,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15138,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15177,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15216,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15255,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15294,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15333,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15372,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15411,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15450,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15489,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15528,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15567,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15606,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15645,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15684,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15723,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15762,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15801,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15840,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15879,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15918,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15957,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15996,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16035,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16074,14 +15832,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16113,14 +15865,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16152,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16191,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16230,14 +15964,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16269,14 +15997,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16308,14 +16030,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16347,14 +16063,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16386,14 +16096,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16425,14 +16129,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16464,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16503,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16542,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16581,14 +16261,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16620,14 +16294,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16656,17 +16324,15 @@
         <v>-79174.70320830408</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2964</v>
+      </c>
       <c r="J483" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2964</v>
+      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16695,15 +16361,17 @@
         <v>-79264.54100830408</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2971</v>
+      </c>
       <c r="J484" t="n">
-        <v>2950</v>
+        <v>2964</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L484" t="n">
@@ -16734,15 +16402,17 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2965</v>
+      </c>
       <c r="J485" t="n">
-        <v>2950</v>
+        <v>2964</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -16773,17 +16443,15 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2971</v>
+      </c>
       <c r="J486" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2971</v>
+      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16812,15 +16480,17 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2971</v>
+      </c>
       <c r="J487" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L487" t="n">
@@ -16851,15 +16521,17 @@
         <v>-78736.40600830408</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2971</v>
+      </c>
       <c r="J488" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L488" t="n">
@@ -16890,17 +16562,15 @@
         <v>-78886.40600830408</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2971</v>
+      </c>
       <c r="J489" t="n">
-        <v>2950</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2971</v>
+      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16929,15 +16599,17 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2965</v>
+      </c>
       <c r="J490" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L490" t="n">
@@ -16968,15 +16640,17 @@
         <v>-78869.71810830408</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>2971</v>
+      </c>
       <c r="J491" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L491" t="n">
@@ -17007,11 +16681,13 @@
         <v>-81021.40690830408</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>2971</v>
+      </c>
       <c r="J492" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17046,11 +16722,13 @@
         <v>-80777.60950830409</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2961</v>
+      </c>
       <c r="J493" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17085,11 +16763,13 @@
         <v>-81779.60950830409</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2971</v>
+      </c>
       <c r="J494" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17124,11 +16804,13 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2960</v>
+      </c>
       <c r="J495" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17163,11 +16845,13 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2959</v>
+      </c>
       <c r="J496" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17202,11 +16886,13 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2959</v>
+      </c>
       <c r="J497" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17241,11 +16927,13 @@
         <v>-81853.62810830408</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2959</v>
+      </c>
       <c r="J498" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17280,11 +16968,13 @@
         <v>-81477.03160830408</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2959</v>
+      </c>
       <c r="J499" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17319,11 +17009,13 @@
         <v>-81493.21640830408</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2960</v>
+      </c>
       <c r="J500" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17358,11 +17050,13 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2959</v>
+      </c>
       <c r="J501" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17397,11 +17091,13 @@
         <v>-82497.21640830408</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2957</v>
+      </c>
       <c r="J502" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17436,11 +17132,13 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2957</v>
+      </c>
       <c r="J503" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17475,11 +17173,13 @@
         <v>-81681.10060830408</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>2960</v>
+      </c>
       <c r="J504" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17514,11 +17214,13 @@
         <v>-84815.89450830409</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>2960</v>
+      </c>
       <c r="J505" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17553,11 +17255,13 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2957</v>
+      </c>
       <c r="J506" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17592,11 +17296,13 @@
         <v>-84629.37270830409</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2963</v>
+      </c>
       <c r="J507" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17631,11 +17337,13 @@
         <v>-84497.11240830409</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2963</v>
+      </c>
       <c r="J508" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17670,11 +17378,13 @@
         <v>-84675.7727083041</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>2970</v>
+      </c>
       <c r="J509" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17709,11 +17419,13 @@
         <v>-84402.5216083041</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>2960</v>
+      </c>
       <c r="J510" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17748,11 +17460,13 @@
         <v>-83147.5463083041</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>2968</v>
+      </c>
       <c r="J511" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17787,11 +17501,13 @@
         <v>-82833.91940830409</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>2971</v>
+      </c>
       <c r="J512" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17830,7 +17546,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17865,11 +17581,13 @@
         <v>-83322.32230830409</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>2984</v>
+      </c>
       <c r="J514" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17904,11 +17622,13 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2972</v>
+      </c>
       <c r="J515" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17943,11 +17663,13 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2985</v>
+      </c>
       <c r="J516" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17982,11 +17704,13 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2985</v>
+      </c>
       <c r="J517" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18021,11 +17745,13 @@
         <v>-82672.8089083041</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2985</v>
+      </c>
       <c r="J518" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18060,11 +17786,13 @@
         <v>-82659.43545460969</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2985</v>
+      </c>
       <c r="J519" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18099,11 +17827,13 @@
         <v>-83026.61305460968</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2991</v>
+      </c>
       <c r="J520" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18138,11 +17868,13 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>2980</v>
+      </c>
       <c r="J521" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18177,11 +17909,13 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>2992</v>
+      </c>
       <c r="J522" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18216,11 +17950,13 @@
         <v>-83019.66405460969</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>2992</v>
+      </c>
       <c r="J523" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18259,7 +17995,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18298,7 +18034,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18337,7 +18073,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18376,7 +18112,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18415,7 +18151,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18454,7 +18190,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18493,7 +18229,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18532,7 +18268,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18571,7 +18307,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18610,7 +18346,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18649,7 +18385,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18688,7 +18424,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18727,7 +18463,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18766,7 +18502,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18805,7 +18541,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18844,7 +18580,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18883,7 +18619,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18922,7 +18658,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18961,7 +18697,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19000,7 +18736,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19035,19 +18771,19 @@
         <v>-89159.87035460969</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>2950</v>
+        <v>2971</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L544" t="n">
-        <v>1.014661016949153</v>
+        <v>1</v>
       </c>
       <c r="M544" t="inlineStr"/>
     </row>
@@ -19074,11 +18810,17 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19107,11 +18849,17 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19140,11 +18888,17 @@
         <v>-89324.6014546097</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19173,11 +18927,17 @@
         <v>-90282.3602546097</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19206,11 +18966,17 @@
         <v>-90516.84675460969</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19239,11 +19005,19 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>3003</v>
+      </c>
+      <c r="J550" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19272,11 +19046,19 @@
         <v>-90866.84675460969</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2987</v>
+      </c>
+      <c r="J551" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19308,8 +19090,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19338,11 +19126,19 @@
         <v>-90754.6305546097</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2984</v>
+      </c>
+      <c r="J553" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19371,11 +19167,19 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2986</v>
+      </c>
+      <c r="J554" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19404,11 +19208,19 @@
         <v>-90790.7718546097</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J555" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19437,11 +19249,19 @@
         <v>-91057.09515460971</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J556" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19470,11 +19290,19 @@
         <v>-91046.08055460971</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2983</v>
+      </c>
+      <c r="J557" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19503,11 +19331,19 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2985</v>
+      </c>
+      <c r="J558" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19536,11 +19372,19 @@
         <v>-91389.22795460971</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2983</v>
+      </c>
+      <c r="J559" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19569,11 +19413,19 @@
         <v>-91351.33535460971</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2983</v>
+      </c>
+      <c r="J560" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19602,11 +19454,19 @@
         <v>-89614.4296546097</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2988</v>
+      </c>
+      <c r="J561" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19635,11 +19495,19 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J562" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19668,11 +19536,19 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2991</v>
+      </c>
+      <c r="J563" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19701,11 +19577,17 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19734,11 +19616,19 @@
         <v>-89618.4296546097</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J565" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19767,11 +19657,19 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2991</v>
+      </c>
+      <c r="J566" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19800,11 +19698,19 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J567" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19833,11 +19739,19 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J568" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19866,11 +19780,19 @@
         <v>-89617.4296546097</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J569" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19899,11 +19821,19 @@
         <v>-89659.7240546097</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J570" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19932,11 +19862,19 @@
         <v>-89210.8456546097</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2988</v>
+      </c>
+      <c r="J571" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19965,11 +19903,19 @@
         <v>-88865.1859546097</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>2990</v>
+      </c>
+      <c r="J572" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19998,11 +19944,19 @@
         <v>-89104.4644546097</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>2991</v>
+      </c>
+      <c r="J573" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20031,11 +19985,19 @@
         <v>-89102.4644546097</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>2988</v>
+      </c>
+      <c r="J574" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20067,8 +20029,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20100,8 +20068,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20133,8 +20107,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20163,11 +20143,19 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J578" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20196,11 +20184,19 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J579" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20229,11 +20225,19 @@
         <v>-88745.8564546097</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J580" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20262,11 +20266,19 @@
         <v>-88840.5515546097</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J581" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20295,11 +20307,19 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>2989</v>
+      </c>
+      <c r="J582" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20328,11 +20348,19 @@
         <v>-88077.3229546097</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>2992</v>
+      </c>
+      <c r="J583" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20367,9 +20395,13 @@
         <v>2992</v>
       </c>
       <c r="J584" t="n">
-        <v>2992</v>
-      </c>
-      <c r="K584" t="inlineStr"/>
+        <v>2971</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20404,11 +20436,11 @@
         <v>2992</v>
       </c>
       <c r="J585" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L585" t="n">
@@ -20445,7 +20477,7 @@
         <v>2998</v>
       </c>
       <c r="J586" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20480,13 +20512,11 @@
         <v>-85725.3610546097</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>2998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20527,7 +20557,7 @@
         <v>2999</v>
       </c>
       <c r="J588" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20568,7 +20598,7 @@
         <v>3010</v>
       </c>
       <c r="J589" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20609,7 +20639,7 @@
         <v>2997</v>
       </c>
       <c r="J590" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20650,7 +20680,7 @@
         <v>3001</v>
       </c>
       <c r="J591" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20685,11 +20715,13 @@
         <v>-84670.11595460972</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>3018</v>
+      </c>
       <c r="J592" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20728,7 +20760,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20767,7 +20799,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20806,7 +20838,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20841,19 +20873,19 @@
         <v>-81259.82815460971</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>2992</v>
+        <v>2971</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L596" t="n">
-        <v>1.014385026737968</v>
+        <v>1</v>
       </c>
       <c r="M596" t="inlineStr"/>
     </row>
@@ -20880,11 +20912,17 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20913,11 +20951,17 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20946,11 +20990,17 @@
         <v>-80567.46605460971</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20979,11 +21029,17 @@
         <v>-79439.11009160939</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21012,11 +21068,17 @@
         <v>-76476.50359160939</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21045,11 +21107,17 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21078,11 +21146,17 @@
         <v>-76544.36359160939</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21114,8 +21188,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21147,8 +21227,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21180,8 +21266,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21213,8 +21305,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21246,8 +21344,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21279,8 +21383,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21312,8 +21422,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21345,8 +21461,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21378,8 +21500,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21411,8 +21539,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21444,8 +21578,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21477,8 +21617,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21510,8 +21656,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21543,8 +21695,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21576,8 +21734,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21609,8 +21773,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21642,8 +21812,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21675,8 +21851,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21708,8 +21890,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21741,8 +21929,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21774,8 +21968,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21807,8 +22007,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21837,11 +22043,17 @@
         <v>-81156.80200731666</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21873,8 +22085,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21906,8 +22124,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21939,8 +22163,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21972,8 +22202,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22005,8 +22241,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22038,8 +22280,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22071,8 +22319,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22104,8 +22358,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22137,8 +22397,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22170,8 +22436,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22203,8 +22475,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22236,8 +22514,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22269,8 +22553,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22302,8 +22592,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22335,8 +22631,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22368,8 +22670,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22401,8 +22709,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22434,8 +22748,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22467,8 +22787,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22500,8 +22826,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22533,8 +22865,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22566,8 +22904,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22599,8 +22943,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22632,8 +22982,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22665,8 +23021,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22698,8 +23060,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22731,8 +23099,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22764,8 +23138,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22797,8 +23177,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22830,8 +23216,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22863,8 +23255,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22896,8 +23294,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22929,8 +23333,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22962,8 +23372,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22995,8 +23411,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23028,8 +23450,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23061,8 +23489,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23094,8 +23528,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23127,8 +23567,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23160,8 +23606,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23193,8 +23645,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23226,8 +23684,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23259,8 +23723,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23292,8 +23762,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23325,8 +23801,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23358,8 +23840,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23391,8 +23879,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23424,8 +23918,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23457,8 +23957,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23490,8 +23996,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23523,8 +24035,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23556,8 +24074,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23589,8 +24113,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23622,8 +24152,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23655,8 +24191,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23688,8 +24230,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23721,8 +24269,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23754,8 +24308,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23787,8 +24347,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23820,8 +24386,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23853,8 +24425,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23886,8 +24464,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23919,8 +24503,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23952,8 +24542,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23985,8 +24581,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24018,8 +24620,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24051,8 +24659,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24084,8 +24698,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24117,8 +24737,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24150,8 +24776,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24183,8 +24815,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24216,8 +24854,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24249,8 +24893,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24282,8 +24932,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24315,8 +24971,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24348,8 +25010,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24381,8 +25049,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24414,8 +25088,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24447,8 +25127,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24480,8 +25166,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24513,8 +25205,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24546,8 +25244,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24579,8 +25283,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24612,8 +25322,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24645,8 +25361,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24678,8 +25400,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24711,8 +25439,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24744,8 +25478,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24777,8 +25517,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24810,8 +25556,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24843,8 +25595,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24876,8 +25634,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24909,8 +25673,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24942,8 +25712,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24975,8 +25751,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25008,8 +25790,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25041,8 +25829,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25074,8 +25868,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25107,8 +25907,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25140,8 +25946,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25173,8 +25985,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25206,8 +26024,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25239,8 +26063,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25272,8 +26102,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25305,8 +26141,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25338,8 +26180,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25371,8 +26219,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25404,8 +26258,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25437,8 +26297,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25470,8 +26336,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25503,8 +26375,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25536,8 +26414,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25569,8 +26453,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25602,8 +26492,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25635,8 +26531,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25668,8 +26570,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25701,8 +26609,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25734,8 +26648,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25767,8 +26687,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25800,8 +26726,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25833,8 +26765,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25866,8 +26804,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25899,8 +26843,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25932,8 +26882,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25965,8 +26921,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25998,8 +26960,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26031,8 +26999,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26064,8 +27038,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26097,8 +27077,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26130,8 +27116,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26163,8 +27155,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26196,8 +27194,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26229,8 +27233,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26262,8 +27272,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26295,8 +27311,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26328,8 +27350,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26361,8 +27389,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26394,8 +27428,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26427,8 +27467,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26460,8 +27506,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26493,8 +27545,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26526,8 +27584,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26559,8 +27623,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26592,8 +27662,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26625,8 +27701,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26658,8 +27740,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26691,8 +27779,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26724,8 +27818,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26757,8 +27857,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26790,8 +27896,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26823,8 +27935,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26856,8 +27974,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26889,8 +28013,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26922,8 +28052,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26955,8 +28091,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26988,8 +28130,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27021,8 +28169,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27054,8 +28208,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27087,8 +28247,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27120,8 +28286,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27153,8 +28325,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27186,8 +28364,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27219,8 +28403,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27252,8 +28442,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27285,8 +28481,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27318,8 +28520,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27351,8 +28559,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27384,8 +28598,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27417,8 +28637,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27450,8 +28676,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27483,8 +28715,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27516,8 +28754,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27549,8 +28793,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27582,8 +28832,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>2971</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
